--- a/Radchenko_Oleh_211352.xlsx
+++ b/Radchenko_Oleh_211352.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\PG\hih + wai\HiH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841076AE-9946-4FAF-8578-D9A7CCACB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A0E247-256A-4524-A20A-1F8575779C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>o   przynajmniej 7 pól do wprowadzania danych</t>
   </si>
@@ -288,10 +288,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>ref</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -792,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1331,13 +1328,12 @@
       <c r="B40" s="23">
         <v>1.6</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
       <c r="D40" s="19">
         <f t="shared" ref="D40:D56" si="5">C40*B40</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1347,10 +1343,15 @@
       <c r="B41" s="23">
         <v>1.6</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
       <c r="D41" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="E41" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,10 +1361,12 @@
       <c r="B42" s="23">
         <v>0.8</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
       <c r="D42" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,10 +1376,12 @@
       <c r="B43" s="23">
         <v>0.8</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
       <c r="D43" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1386,10 +1391,12 @@
       <c r="B44" s="23">
         <v>0.3</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
       <c r="D44" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,10 +1406,12 @@
       <c r="B45" s="23">
         <v>0.2</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
       <c r="D45" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,10 +1421,12 @@
       <c r="B46" s="23">
         <v>0.4</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
       <c r="D46" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1425,10 +1436,12 @@
       <c r="B47" s="23">
         <v>1.2</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
       <c r="D47" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1438,10 +1451,12 @@
       <c r="B48" s="23">
         <v>1.6</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
       <c r="D48" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,13 +1477,12 @@
       <c r="B50" s="23">
         <v>0.4</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
       <c r="D50" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>84</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,13 +1492,12 @@
       <c r="B51" s="23">
         <v>0.6</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
       <c r="D51" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>83</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1494,10 +1507,12 @@
       <c r="B52" s="23">
         <v>0.3</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
       <c r="D52" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1507,13 +1522,12 @@
       <c r="B53" s="23">
         <v>0.6</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
       <c r="D53" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>85</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
@@ -1523,13 +1537,15 @@
       <c r="B54" s="23">
         <v>0.2</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
       <c r="D54" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -1555,10 +1571,15 @@
       <c r="B56" s="23">
         <v>0.2</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
       <c r="D56" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="E56" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,7 +1593,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="24">
         <f>SUM(D40:D56)</f>
-        <v>0</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1697,7 +1718,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="26">
         <f>D66+D57+D37+D28</f>
-        <v>11.999999999999996</v>
+        <v>22.799999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">

--- a/Radchenko_Oleh_211352.xlsx
+++ b/Radchenko_Oleh_211352.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\PG\hih + wai\HiH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A0E247-256A-4524-A20A-1F8575779C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E9EF2-7154-4D15-B6E5-B51006B5B06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 projekt" sheetId="3" r:id="rId1"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,10 +1555,12 @@
       <c r="B55" s="23">
         <v>0.2</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
       <c r="D55" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>83</v>
@@ -1593,7 +1595,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="24">
         <f>SUM(D40:D56)</f>
-        <v>10.799999999999999</v>
+        <v>10.999999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1718,7 +1720,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="26">
         <f>D66+D57+D37+D28</f>
-        <v>22.799999999999997</v>
+        <v>22.999999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
